--- a/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-2/06_Log.M1.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-2/06_Log.M1.Scaled.Coef.xlsx
@@ -422,52 +422,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.66 (0.50, 0.88)</t>
+          <t>0.90 (0.72, 1.17)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.405</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.73 (0.55, 0.99)</t>
+          <t>0.92 (0.83, 1.02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.78 (0.57, 1.07)</t>
+          <t>0.97 (0.92, 1.01)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.174</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.63 (0.46, 0.85)</t>
+          <t>0.92 (0.83, 1.01)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.092</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.72 (0.54, 0.96)</t>
+          <t>0.92 (0.80, 1.04)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.179</t>
         </is>
       </c>
     </row>
@@ -479,37 +479,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.62 (0.46, 0.82)</t>
+          <t>0.71 (0.52, 0.92)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.67 (0.52, 0.86)</t>
+          <t>0.83 (0.76, 0.91)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.70 (0.56, 0.88)</t>
+          <t>0.94 (0.91, 0.97)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.61 (0.47, 0.79)</t>
+          <t>0.85 (0.78, 0.92)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -519,64 +519,64 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.71 (0.55, 0.90)</t>
+          <t>0.79 (0.70, 0.88)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HF</t>
+          <t>Heart failure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.25 (0.09, 0.57)</t>
+          <t>0.23 (0.08, 0.55)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.35 (0.18, 0.60)</t>
+          <t>0.75 (0.62, 0.89)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.56 (0.36, 0.86)</t>
+          <t>0.93 (0.87, 0.98)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.34 (0.18, 0.60)</t>
+          <t>0.76 (0.63, 0.89)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.30 (0.14, 0.57)</t>
+          <t>0.63 (0.47, 0.82)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -588,57 +588,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Myocardial Infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.36 (0.14, 0.73)</t>
+          <t>0.96 (0.59, 1.34)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.826</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.55 (0.32, 0.89)</t>
+          <t>0.82 (0.68, 0.97)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.66 (0.42, 1.01)</t>
+          <t>0.93 (0.87, 0.99)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.46 (0.25, 0.78)</t>
+          <t>0.88 (0.75, 1.02)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.100</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.48 (0.25, 0.82)</t>
+          <t>0.79 (0.62, 0.98)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.047</t>
         </is>
       </c>
     </row>
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.74 (0.54, 0.99)</t>
+          <t>0.63 (0.43, 0.88)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.76 (0.58, 0.99)</t>
+          <t>0.84 (0.76, 0.93)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.75 (0.58, 0.97)</t>
+          <t>0.93 (0.90, 0.97)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.77 (0.58, 1.01)</t>
+          <t>0.84 (0.76, 0.92)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.79 (0.60, 1.02)</t>
+          <t>0.84 (0.73, 0.95)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.007</t>
         </is>
       </c>
     </row>
